--- a/biology/Zoologie/Eocaecilia_micropodia/Eocaecilia_micropodia.xlsx
+++ b/biology/Zoologie/Eocaecilia_micropodia/Eocaecilia_micropodia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eocaecilia micropodia est une espèce éteinte de gymnophiones. C'est la plus vieille espèce de la branche des gymnophiones qui soit connue aujourd'hui. Contrairement au gymnophiones modernes (Apoda) elle avait encore de petites pattes.
 </t>
@@ -511,7 +523,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce date du Jurassique. Elle a été découverte en Arizona aux États-Unis.
 </t>
@@ -542,9 +556,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des gymnophiones d'après Wilkinson et al. (2011)[1] et San Mauro et al. (2014)[2],[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des gymnophiones d'après Wilkinson et al. (2011) et San Mauro et al. (2014), :
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Jenkins &amp; Walsh, 1993 : An Early Jurassic caecilian with limbs. Nature, vol. 365, no 6443, p. 246-250.</t>
         </is>
